--- a/SUIVI_GLOBAL_P6.xlsx
+++ b/SUIVI_GLOBAL_P6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIARRA\Documents\Sonatel\projetapprenant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FCC1A2-7D0C-4D74-B837-D49605C0F7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E17BB8-B24B-4018-94E5-97DE04C25B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,9 +31,9 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
-    <pivotCache cacheId="1" r:id="rId8"/>
-    <pivotCache cacheId="2" r:id="rId9"/>
+    <pivotCache cacheId="4" r:id="rId7"/>
+    <pivotCache cacheId="5" r:id="rId8"/>
+    <pivotCache cacheId="6" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -8623,6 +8623,8 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8662,8 +8664,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -9233,7 +9233,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F9BE373-22CC-48F2-8009-169F0F5925B7}" name="Tableau croisé dynamique1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F9BE373-22CC-48F2-8009-169F0F5925B7}" name="Tableau croisé dynamique1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -9356,7 +9356,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8DBE0D36-A0B3-4BE9-B3EE-7B21A8A374C5}" name="Tableau croisé dynamique5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8DBE0D36-A0B3-4BE9-B3EE-7B21A8A374C5}" name="Tableau croisé dynamique5" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A31:B37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -9463,7 +9463,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F754E92-7D3C-4457-A39F-0C7C97D11639}" name="Tableau croisé dynamique2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F754E92-7D3C-4457-A39F-0C7C97D11639}" name="Tableau croisé dynamique2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A21:D28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -9854,11 +9854,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="93" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A34:XFD34"/>
+      <selection pane="bottomRight" activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -9908,48 +9908,48 @@
       <c r="AI1" s="467"/>
     </row>
     <row r="2" spans="1:36" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="501" t="s">
+      <c r="A2" s="503" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="502"/>
-      <c r="C2" s="502"/>
-      <c r="D2" s="502"/>
-      <c r="E2" s="502"/>
-      <c r="F2" s="502"/>
-      <c r="G2" s="502"/>
-      <c r="H2" s="502"/>
-      <c r="I2" s="502"/>
-      <c r="J2" s="502"/>
-      <c r="K2" s="502"/>
-      <c r="L2" s="502"/>
-      <c r="M2" s="502"/>
-      <c r="N2" s="503"/>
-      <c r="O2" s="504" t="s">
+      <c r="B2" s="504"/>
+      <c r="C2" s="504"/>
+      <c r="D2" s="504"/>
+      <c r="E2" s="504"/>
+      <c r="F2" s="504"/>
+      <c r="G2" s="504"/>
+      <c r="H2" s="504"/>
+      <c r="I2" s="504"/>
+      <c r="J2" s="504"/>
+      <c r="K2" s="504"/>
+      <c r="L2" s="504"/>
+      <c r="M2" s="504"/>
+      <c r="N2" s="505"/>
+      <c r="O2" s="506" t="s">
         <v>1274</v>
       </c>
-      <c r="P2" s="505"/>
-      <c r="Q2" s="505"/>
-      <c r="R2" s="505"/>
-      <c r="S2" s="506"/>
-      <c r="T2" s="494" t="s">
+      <c r="P2" s="507"/>
+      <c r="Q2" s="507"/>
+      <c r="R2" s="507"/>
+      <c r="S2" s="508"/>
+      <c r="T2" s="496" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="495"/>
-      <c r="V2" s="495"/>
-      <c r="W2" s="495"/>
-      <c r="X2" s="495"/>
-      <c r="Y2" s="495"/>
-      <c r="Z2" s="495"/>
-      <c r="AA2" s="496"/>
-      <c r="AB2" s="495"/>
-      <c r="AC2" s="495"/>
-      <c r="AD2" s="497"/>
+      <c r="U2" s="497"/>
+      <c r="V2" s="497"/>
+      <c r="W2" s="497"/>
+      <c r="X2" s="497"/>
+      <c r="Y2" s="497"/>
+      <c r="Z2" s="497"/>
+      <c r="AA2" s="498"/>
+      <c r="AB2" s="497"/>
+      <c r="AC2" s="497"/>
+      <c r="AD2" s="499"/>
       <c r="AE2" s="1"/>
-      <c r="AF2" s="498" t="s">
+      <c r="AF2" s="500" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="499"/>
-      <c r="AH2" s="500"/>
+      <c r="AG2" s="501"/>
+      <c r="AH2" s="502"/>
       <c r="AI2" s="467"/>
     </row>
     <row r="3" spans="1:36" ht="102.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -12335,7 +12335,7 @@
       <c r="AC34" s="87"/>
       <c r="AD34" s="87"/>
       <c r="AE34" s="109"/>
-      <c r="AF34" s="508" t="s">
+      <c r="AF34" s="495" t="s">
         <v>1183</v>
       </c>
       <c r="AG34" s="108"/>
@@ -18656,7 +18656,7 @@
         <v>1841</v>
       </c>
       <c r="AA121" s="87"/>
-      <c r="AB121" s="507">
+      <c r="AB121" s="494">
         <v>60000</v>
       </c>
       <c r="AC121" s="87">
@@ -21464,7 +21464,7 @@
       </c>
       <c r="G162" s="326">
         <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H162" s="324" t="s">
         <v>1652</v>
@@ -21742,7 +21742,7 @@
       </c>
       <c r="G166" s="326">
         <f t="shared" ca="1" si="7"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H166" s="324" t="s">
         <v>1652</v>
@@ -28431,7 +28431,7 @@
       </c>
       <c r="S15" s="34"/>
     </row>
-    <row r="16" spans="1:19" ht="286.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" ht="299.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="82" t="s">
         <v>484</v>
       </c>
